--- a/프로젝트_계획서/식재료_음식메뉴_목록.xlsx
+++ b/프로젝트_계획서/식재료_음식메뉴_목록.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4rest\Desktop\Shin\Fridge_Please\프로젝트_계획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4rest\Desktop\신용준\Fridge_Please\프로젝트_계획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E5C87E-08A0-4DC3-9447-9C4B020990CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D48D9ED-F73E-4134-A757-B4C7DC084A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +324,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDFE6F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -376,6 +382,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +569,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -569,7 +578,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -878,27 +887,27 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H28" sqref="H27:H28"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="46" max="46" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -919,7 +928,7 @@
       <c r="J1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -946,13 +955,13 @@
       <c r="S1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="7" t="s">
         <v>34</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="7" t="s">
         <v>37</v>
       </c>
       <c r="W1" s="4" t="s">
@@ -961,13 +970,13 @@
       <c r="X1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Z1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="7" t="s">
         <v>43</v>
       </c>
       <c r="AB1" s="4" t="s">
@@ -1033,7 +1042,7 @@
       <c r="AV1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AX1" s="4" t="s">
@@ -1072,7 +1081,7 @@
       <c r="BI1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="BK1" s="4" t="s">
@@ -1082,7 +1091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -1150,7 +1159,7 @@
       <c r="BK2" s="5"/>
       <c r="BL2" s="5"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -1242,7 +1251,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
@@ -1336,7 +1345,7 @@
       <c r="BK4" s="5"/>
       <c r="BL4" s="5"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -1422,7 +1431,7 @@
       <c r="BK5" s="5"/>
       <c r="BL5" s="5"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -1500,7 +1509,7 @@
       <c r="BK6" s="5"/>
       <c r="BL6" s="5"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A7" s="2" t="s">
         <v>82</v>
       </c>
@@ -1598,7 +1607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
@@ -1678,7 +1687,7 @@
       <c r="BK8" s="5"/>
       <c r="BL8" s="5"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
@@ -1756,7 +1765,7 @@
       <c r="BK9" s="5"/>
       <c r="BL9" s="5"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A10" s="2" t="s">
         <v>69</v>
       </c>
@@ -1848,7 +1857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -1932,7 +1941,7 @@
       <c r="BK11" s="5"/>
       <c r="BL11" s="5"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -2022,7 +2031,7 @@
       <c r="BK12" s="5"/>
       <c r="BL12" s="5"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -2102,7 +2111,7 @@
       <c r="BK13" s="5"/>
       <c r="BL13" s="5"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
@@ -2180,7 +2189,7 @@
       <c r="BK14" s="5"/>
       <c r="BL14" s="5"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
@@ -2270,7 +2279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2348,7 +2357,7 @@
       <c r="BK16" s="5"/>
       <c r="BL16" s="5"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2436,7 +2445,7 @@
       <c r="BK17" s="5"/>
       <c r="BL17" s="5"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -2536,7 +2545,7 @@
       <c r="BK18" s="5"/>
       <c r="BL18" s="5"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -2624,7 +2633,7 @@
       <c r="BK19" s="5"/>
       <c r="BL19" s="5"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -2706,7 +2715,7 @@
       </c>
       <c r="BL20" s="5"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A21" s="3" t="s">
         <v>75</v>
       </c>
@@ -2790,7 +2799,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -2870,7 +2879,7 @@
       <c r="BK22" s="5"/>
       <c r="BL22" s="5"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
@@ -2964,7 +2973,7 @@
       <c r="BK23" s="5"/>
       <c r="BL23" s="5"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
@@ -3056,7 +3065,7 @@
       <c r="BK24" s="5"/>
       <c r="BL24" s="5"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
@@ -3146,7 +3155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.6">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
